--- a/config_8.17/act_hhl_ty_config.xlsx
+++ b/config_8.17/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -625,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I26" activeCellId="1" sqref="G8:G9 I26"/>
     </sheetView>
   </sheetViews>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -860,11 +860,11 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>29</v>
+      <c r="B6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="2">
         <v>30000</v>
@@ -879,11 +879,11 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>41</v>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>12000</v>
@@ -1152,9 +1152,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1168,17 +1173,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1189,22 +1203,8 @@
 </pixelators>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1216,13 +1216,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_8.17/act_hhl_ty_config.xlsx
+++ b/config_8.17/act_hhl_ty_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>line|</t>
   </si>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>swjl_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>condiy_key|</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +278,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,6 +328,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,7 +754,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -777,7 +792,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -797,7 +812,9 @@
       <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
@@ -816,7 +833,9 @@
       <c r="G3" s="5">
         <v>1</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="17" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
@@ -1152,6 +1171,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1162,24 +1197,15 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1193,18 +1219,11 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1216,13 +1235,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1234,7 +1253,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>